--- a/CodeSharks Scrum.xlsx
+++ b/CodeSharks Scrum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -280,6 +280,9 @@
     <t>Came up with more features and updated project proposal</t>
   </si>
   <si>
+    <t>Implement some features into rfp</t>
+  </si>
+  <si>
     <t>I worked on the PP Future Vision and PP Features</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
     <t>I am going to continue working on PP Competitors and create the BRD Framework/Template</t>
   </si>
   <si>
+    <t>Added to rfp unique features</t>
+  </si>
+  <si>
     <t>I completed the PP Glossary and PP Features</t>
   </si>
   <si>
@@ -313,10 +319,16 @@
     <t>I am going to complete the BRD Template and work on BRD Overview</t>
   </si>
   <si>
+    <t>Tweak use case format</t>
+  </si>
+  <si>
     <t>I thought of 3 new ideas of playdates, puppy growth collage, and to improve pet profile with medical records.</t>
   </si>
   <si>
     <t>I am going to implement the new ideas and edit other features to align better with our value.</t>
+  </si>
+  <si>
+    <t>fixed the formatting of our brd usecases</t>
   </si>
   <si>
     <t>Work on BRD use cases</t>
@@ -369,6 +381,9 @@
   </si>
   <si>
     <t>Worked on HL Design Document</t>
+  </si>
+  <si>
+    <t>Same as yesterday</t>
   </si>
 </sst>
 </file>
@@ -644,11 +659,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="611818053"/>
-        <c:axId val="1102726719"/>
+        <c:axId val="887578567"/>
+        <c:axId val="1809597680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="611818053"/>
+        <c:axId val="887578567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +715,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1102726719"/>
+        <c:crossAx val="1809597680"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1102726719"/>
+        <c:axId val="1809597680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611818053"/>
+        <c:crossAx val="887578567"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -872,11 +887,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="722561890"/>
-        <c:axId val="718726687"/>
+        <c:axId val="494915964"/>
+        <c:axId val="310039251"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="722561890"/>
+        <c:axId val="494915964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,10 +943,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718726687"/>
+        <c:crossAx val="310039251"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="718726687"/>
+        <c:axId val="310039251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722561890"/>
+        <c:crossAx val="494915964"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1100,11 +1115,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1997573644"/>
-        <c:axId val="1605019344"/>
+        <c:axId val="874189647"/>
+        <c:axId val="997997953"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1997573644"/>
+        <c:axId val="874189647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,10 +1171,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1605019344"/>
+        <c:crossAx val="997997953"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1605019344"/>
+        <c:axId val="997997953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1251,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997573644"/>
+        <c:crossAx val="874189647"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1328,11 +1343,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93274415"/>
-        <c:axId val="741953814"/>
+        <c:axId val="1355578533"/>
+        <c:axId val="916037956"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93274415"/>
+        <c:axId val="1355578533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,10 +1399,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="741953814"/>
+        <c:crossAx val="916037956"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="741953814"/>
+        <c:axId val="916037956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93274415"/>
+        <c:crossAx val="1355578533"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1556,11 +1571,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="859958047"/>
-        <c:axId val="1623613859"/>
+        <c:axId val="1067153989"/>
+        <c:axId val="160400703"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="859958047"/>
+        <c:axId val="1067153989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,10 +1627,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623613859"/>
+        <c:crossAx val="160400703"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1623613859"/>
+        <c:axId val="160400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,7 +1707,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859958047"/>
+        <c:crossAx val="1067153989"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1784,11 +1799,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="630846277"/>
-        <c:axId val="1343966789"/>
+        <c:axId val="1191088351"/>
+        <c:axId val="1461419404"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="630846277"/>
+        <c:axId val="1191088351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,10 +1855,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1343966789"/>
+        <c:crossAx val="1461419404"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1343966789"/>
+        <c:axId val="1461419404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630846277"/>
+        <c:crossAx val="1191088351"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2012,11 +2027,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2102904506"/>
-        <c:axId val="1831608057"/>
+        <c:axId val="2003413048"/>
+        <c:axId val="2070942633"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102904506"/>
+        <c:axId val="2003413048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,10 +2083,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831608057"/>
+        <c:crossAx val="2070942633"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1831608057"/>
+        <c:axId val="2070942633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102904506"/>
+        <c:crossAx val="2003413048"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2240,11 +2255,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="642070463"/>
-        <c:axId val="1881737334"/>
+        <c:axId val="2063283969"/>
+        <c:axId val="1223739787"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="642070463"/>
+        <c:axId val="2063283969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,10 +2311,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881737334"/>
+        <c:crossAx val="1223739787"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1881737334"/>
+        <c:axId val="1223739787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642070463"/>
+        <c:crossAx val="2063283969"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2468,11 +2483,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1183953872"/>
-        <c:axId val="970963806"/>
+        <c:axId val="384398183"/>
+        <c:axId val="249386302"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1183953872"/>
+        <c:axId val="384398183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,10 +2539,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970963806"/>
+        <c:crossAx val="249386302"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970963806"/>
+        <c:axId val="249386302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1183953872"/>
+        <c:crossAx val="384398183"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2696,11 +2711,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="107509215"/>
-        <c:axId val="1850388383"/>
+        <c:axId val="664564085"/>
+        <c:axId val="565129457"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107509215"/>
+        <c:axId val="664564085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,10 +2767,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850388383"/>
+        <c:crossAx val="565129457"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850388383"/>
+        <c:axId val="565129457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +2847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107509215"/>
+        <c:crossAx val="664564085"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2924,11 +2939,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1975460791"/>
-        <c:axId val="1992380288"/>
+        <c:axId val="1954657484"/>
+        <c:axId val="1319196036"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1975460791"/>
+        <c:axId val="1954657484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,10 +2995,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1992380288"/>
+        <c:crossAx val="1319196036"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1992380288"/>
+        <c:axId val="1319196036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975460791"/>
+        <c:crossAx val="1954657484"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4123,7 +4138,7 @@
       </c>
       <c r="O3" s="12">
         <f>E2+E13+E24+E35+E46+N1</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -4146,7 +4161,7 @@
       </c>
       <c r="M4" s="9">
         <f>O3</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -4169,7 +4184,7 @@
       </c>
       <c r="M5" s="9">
         <f>O3-L5</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -4192,7 +4207,7 @@
       </c>
       <c r="M6" s="9">
         <f t="shared" ref="M6:M9" si="3">M5-L6</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -4215,7 +4230,7 @@
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -4238,7 +4253,7 @@
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -4254,7 +4269,7 @@
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -4507,7 +4522,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="12">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -4775,7 +4790,7 @@
       </c>
       <c r="O3" s="12">
         <f>E2+E13+E24+E35+N1</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -4798,7 +4813,7 @@
       </c>
       <c r="M4" s="9">
         <f>O3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -4817,11 +4832,11 @@
       </c>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L11" si="2">B4+B15+B26+B37</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="9">
         <f>O3-L5</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -4840,11 +4855,11 @@
       </c>
       <c r="L6" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" ref="M6:M11" si="3">M5-L6</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -4867,7 +4882,7 @@
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -4890,7 +4905,7 @@
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -4913,7 +4928,7 @@
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4951,7 @@
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -4950,7 +4965,7 @@
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -5218,7 +5233,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="12">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="36">
@@ -5228,9 +5243,8 @@
       <c r="B36" s="11">
         <v>0.0</v>
       </c>
-      <c r="C36" s="9">
-        <f>E35</f>
-        <v>0</v>
+      <c r="C36" s="8">
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
@@ -5238,11 +5252,10 @@
         <v>1.0</v>
       </c>
       <c r="B37" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="9">
-        <f>E35-B37</f>
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
@@ -5250,11 +5263,11 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" ref="C38:C43" si="6">C37-B38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -5266,7 +5279,7 @@
       </c>
       <c r="C39" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -5278,7 +5291,7 @@
       </c>
       <c r="C40" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -5290,7 +5303,7 @@
       </c>
       <c r="C41" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -5302,7 +5315,7 @@
       </c>
       <c r="C42" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -5314,7 +5327,7 @@
       </c>
       <c r="C43" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -5506,7 +5519,9 @@
       <c r="C17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" ht="26.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -5550,10 +5565,10 @@
         <v>69</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
@@ -5564,10 +5579,10 @@
         <v>69</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
@@ -5578,10 +5593,10 @@
         <v>69</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
@@ -5591,7 +5606,9 @@
       <c r="B25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" ht="26.25" customHeight="1">
@@ -5636,7 +5653,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="22"/>
     </row>
@@ -5648,10 +5665,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="26.25" customHeight="1">
@@ -5662,10 +5679,10 @@
         <v>69</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="26.25" customHeight="1">
@@ -5676,7 +5693,9 @@
         <v>69</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" ht="26.25" customHeight="1">
       <c r="A34" s="18" t="s">
@@ -5728,10 +5747,10 @@
         <v>69</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="26.25" customHeight="1">
@@ -5749,9 +5768,11 @@
       <c r="B41" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="D41" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" ht="26.25" customHeight="1">
@@ -5782,7 +5803,7 @@
     </row>
     <row r="46" ht="26.25" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" ht="26.25" customHeight="1"/>
@@ -5817,7 +5838,7 @@
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="26.25" customHeight="1">
@@ -5828,10 +5849,10 @@
         <v>69</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" ht="26.25" customHeight="1">
@@ -5843,7 +5864,7 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="26.25" customHeight="1">
@@ -5851,7 +5872,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
@@ -5890,7 +5911,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -5902,10 +5923,10 @@
         <v>69</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" ht="26.25" customHeight="1">
@@ -5916,10 +5937,10 @@
         <v>69</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="26.25" customHeight="1">
@@ -5927,11 +5948,11 @@
         <v>78</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="26.25" customHeight="1">
@@ -5969,7 +5990,7 @@
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" ht="26.25" customHeight="1">
@@ -5980,10 +6001,10 @@
         <v>69</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" ht="26.25" customHeight="1">
@@ -5994,10 +6015,10 @@
         <v>69</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" ht="26.25" customHeight="1">
@@ -6008,9 +6029,11 @@
         <v>69</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="69" ht="26.25" customHeight="1">
       <c r="A69" s="15"/>
